--- a/data/trans_bre/P25_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>15,32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,52</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94,52%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>19,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>90,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,55%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 22,0</t>
+          <t>12,39; 22,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,05</t>
+          <t>9,71; 19,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,16</t>
+          <t>5,77; 15,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 18,15</t>
+          <t>10,13; 21,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,73; 145,2</t>
+          <t>8,86; 18,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,7; 138,18</t>
+          <t>14,89; 24,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 83,64</t>
+          <t>58,32; 139,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 78,3</t>
+          <t>50,63; 139,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 84,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43,84; 128,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32,01; 80,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59,17; 122,96</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,85</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,68%</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,82%</t>
+          <t>55,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50,67%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 18,89</t>
+          <t>8,74; 20,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,44</t>
+          <t>4,62; 15,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,53</t>
+          <t>6,57; 17,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 20,6</t>
+          <t>4,17; 18,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,75; 124,59</t>
+          <t>2,83; 20,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 100,39</t>
+          <t>3,83; 21,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 97,69</t>
+          <t>42,86; 145,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 94,53</t>
+          <t>22,69; 98,81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 99,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,43; 85,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 97,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 98,27</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,55</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,81</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>159,57%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>144,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 38,74</t>
+          <t>13,01; 33,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 24,88</t>
+          <t>6,33; 25,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 25,02</t>
+          <t>1,88; 25,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-11,89; 19,03</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>54,21; 349,02</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 178,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 147,51</t>
+          <t>56,4; 287,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 176,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 150,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-32,98; 95,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,4%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>74,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,23</t>
+          <t>12,99; 19,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 16,18</t>
+          <t>9,84; 16,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,83</t>
+          <t>7,71; 14,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,48</t>
+          <t>8,12; 17,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,89; 126,83</t>
+          <t>8,94; 17,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,11; 103,09</t>
+          <t>13,41; 22,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 75,36</t>
+          <t>66,27; 126,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,61; 75,07</t>
+          <t>50,74; 100,77</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 75,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 83,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,55; 74,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53,19; 106,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,32</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,47</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>93,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>90,42%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>49,09%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>77,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>53,55%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>17.13794860268732</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.96906598415156</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.19702366748014</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.1004761868963</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>13.51711765245893</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>19.40697119201112</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9492783173195311</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9179426295813349</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4693957065833533</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7585872521892987</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.5354587955722663</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.8756497920392879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,39; 22,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 19,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 15,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,13; 21,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8,86; 18,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14,89; 24,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>58,32; 139,46</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>50,63; 139,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>23,15; 84,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>43,84; 128,39</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>32,01; 80,41</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>59,17; 122,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>12.34345946111001</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9.943340427513121</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.29165775447958</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9.949295381248046</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8.859797902046733</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>14.71628464589865</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.5946978204544054</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5019483523921155</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.211011672213516</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.4259207753502116</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.3200858999207699</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.5869292248886073</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.43663510806993</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.2524423611209</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.42612525878915</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.32024779455696</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>18.30874695744347</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>24.04957057564486</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.417344075249375</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.396511704110963</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.841814201041423</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.286278574564806</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.8041026103146118</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.221344639354667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,02</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,86</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,86</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>84,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>55,23%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>57,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>43,1%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>45,86%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>50,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,74; 20,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 15,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 17,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 18,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 20,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 21,03</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>42,86; 145,62</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>22,69; 98,81</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28,62; 99,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 85,42</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 97,81</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>11,47; 98,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.50410435884549</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.33200957743732</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.93990285845689</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.75009816832759</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.85933000340837</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>12.92509106653048</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8488783530177819</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5768903568793252</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.583873985373319</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4208319633624852</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4585645246535517</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.5067969914570635</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>24,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,6</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>144,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>82,2%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>62,58%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.444174329417381</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.166978244359915</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.53529181440841</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.963833227669789</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>2.833501586043408</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.804230272017902</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.4162349331134705</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2322594135083269</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.2933336490742284</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1372445555173376</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.09247378996450509</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.1186644085578798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 33,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 25,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 25,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; 19,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>56,4; 287,74</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>25,05; 176,47</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 150,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-32,98; 95,78</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.44310184747568</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.50524272891795</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.5370851816235</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>18.11487905898392</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>20.93309050904647</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.09669592465249</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.472147271678547</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.0229456542131</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9968633471992944</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8389584810387833</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9781162895485321</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.9784354078382579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>16,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,14</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,94</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>96,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>74,85%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>53,94%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>53,75%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>51,77%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>78,16%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>26.03307118426179</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>15.56167028103433</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>16.08767072807759</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.307884535915964</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.565275167834934</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.8245868969123138</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7049669122954358</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.2274794482920075</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12,99; 19,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,84; 16,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,71; 14,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 17,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,94; 17,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13,41; 22,17</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>66,27; 126,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>50,74; 100,77</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>32,75; 75,0</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>31,29; 83,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>31,55; 74,07</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>53,19; 106,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>13.29938981051732</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.006371921282002</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.695468474197929</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.67283262909217</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.5147723342886901</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.2791826410624424</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.0898969259597425</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.322587289887639</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>36.4587803586479</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.25796857404614</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.50300808425158</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.9381532158313</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>3.159989965582001</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.816059066384272</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.611712226615321</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9965940225894376</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>17.15723456992174</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.21946432892751</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.55301446771722</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.26258388218594</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>13.14441985454944</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>17.90192107720821</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9807438816107286</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.765839106509149</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5412306232358518</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.530140960172335</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.5176596730653514</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.7792360967068351</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>13.28066095968144</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.888094820416171</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7.587196203120354</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.983426360596921</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>8.938009491132243</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>13.18506353161564</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.674721481898088</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5223722049073464</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3261759383020179</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.3093141980311618</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.3155312409919998</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.5332683801914816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.64568498898696</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.34801587568368</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.86381231894481</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.96722538526968</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>17.33061194429922</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>22.17557651397381</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.307664714814978</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.038462505746264</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7611216662838721</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8230696170862373</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.740654434335777</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.056478690583348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
